--- a/Financieel/UiteindelijkeKostenJuist.xlsx
+++ b/Financieel/UiteindelijkeKostenJuist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/780ebed5e8f36d5a/Documenten/school/22-23/P^00/financieel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\OneDrive\Documenten\P&amp;O 2\GIT\2022_2023_Probleemoplossen_en_Ontwerpen_2\Financieel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:4000b_{9682862B-F4F4-4906-B16A-3B79BBA25D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DA8EBF-F018-4176-816C-FB8E4582437E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C675FB2-A1EF-4026-9BBF-4DED50489BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Benodigdheden</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Universele voeding met vaste uitgangsspanning 12V - 5A</t>
   </si>
   <si>
-    <t>TOTAAL:</t>
-  </si>
-  <si>
     <t>reden voor aankoop</t>
   </si>
   <si>
@@ -204,13 +201,22 @@
   </si>
   <si>
     <t>hadden beter volledig in hout gewerkt, want duur</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>OVERSCHOT</t>
+  </si>
+  <si>
+    <t>TOTAAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -224,7 +230,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -265,13 +279,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,7 +299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,23 +595,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="69.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -634,10 +646,10 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -652,10 +664,10 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -670,10 +682,10 @@
         <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -688,13 +700,13 @@
         <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -709,10 +721,10 @@
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -727,10 +739,10 @@
         <v>97.5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -745,10 +757,10 @@
         <v>127.5</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -763,13 +775,13 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -784,13 +796,13 @@
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -805,10 +817,10 @@
         <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -823,13 +835,13 @@
         <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -844,10 +856,10 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -862,10 +874,10 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -880,10 +892,10 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -898,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -919,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -937,13 +949,13 @@
         <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -958,10 +970,10 @@
         <v>320</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -976,10 +988,10 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -994,10 +1006,10 @@
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1012,10 +1024,10 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1030,10 +1042,10 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1048,16 +1060,33 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4">
         <f>SUM(D2:D24)</f>
         <v>3315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4">
+        <f>D27-D26</f>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1065,6 +1094,6 @@
     <hyperlink ref="A24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Financieel/UiteindelijkeKostenJuist.xlsx
+++ b/Financieel/UiteindelijkeKostenJuist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\OneDrive\Documenten\P&amp;O 2\GIT\2022_2023_Probleemoplossen_en_Ontwerpen_2\Financieel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/780ebed5e8f36d5a/Documenten/school/22-23/P^00/Github/2022_2023_Probleemoplossen_en_Ontwerpen_2/Financieel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C675FB2-A1EF-4026-9BBF-4DED50489BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0C675FB2-A1EF-4026-9BBF-4DED50489BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998A5866-C5B5-4EB7-BB46-BD537A7CEE85}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Benodigdheden</t>
   </si>
@@ -179,28 +179,7 @@
     <t>aandrijven van pomp</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>minder sterk dan gedacht</t>
-  </si>
-  <si>
     <t>water bijhouden</t>
-  </si>
-  <si>
-    <t>niet zo nuttig, enkel de voor en eindstukken waren handig als spuitstuk.</t>
-  </si>
-  <si>
-    <t>was moeilijk om te programmeren en niet zo nauwkeurig</t>
-  </si>
-  <si>
-    <t>niet gebruikt</t>
-  </si>
-  <si>
-    <t>te veel gekocht</t>
-  </si>
-  <si>
-    <t>hadden beter volledig in hout gewerkt, want duur</t>
   </si>
   <si>
     <t>BUDGET</t>
@@ -283,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,21 +576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="69.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,11 +606,9 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -667,7 +644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -702,11 +679,8 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -721,10 +695,10 @@
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -742,7 +716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -760,7 +734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -777,11 +751,8 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -798,11 +769,8 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -820,7 +788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -837,11 +805,8 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -859,7 +824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -877,7 +842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -895,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -912,11 +877,8 @@
       <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -934,7 +896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -951,11 +913,8 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -973,7 +932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -991,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1009,7 +968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1063,26 +1022,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4">
         <f>SUM(D2:D24)</f>
         <v>3315</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D27" s="4">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <f>D27-D26</f>

--- a/Financieel/UiteindelijkeKostenJuist.xlsx
+++ b/Financieel/UiteindelijkeKostenJuist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/780ebed5e8f36d5a/Documenten/school/22-23/P^00/Github/2022_2023_Probleemoplossen_en_Ontwerpen_2/Financieel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\OneDrive\Documenten\P&amp;O 2\GIT\2022_2023_Probleemoplossen_en_Ontwerpen_2\Financieel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0C675FB2-A1EF-4026-9BBF-4DED50489BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998A5866-C5B5-4EB7-BB46-BD537A7CEE85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC58E77-530D-40AC-976A-74A732FCDF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -252,17 +252,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,21 +583,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="69.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,17 +615,17 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>240</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D24" si="0" xml:space="preserve"> B2*C2</f>
         <v>240</v>
       </c>
@@ -626,17 +633,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>105</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -644,17 +651,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>350</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -662,17 +669,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>160</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
@@ -680,17 +687,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>150</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -698,17 +705,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>7.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
@@ -716,17 +723,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>7.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>127.5</v>
       </c>
@@ -734,17 +741,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>150</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -752,17 +759,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>350</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -770,17 +777,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>150</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -788,17 +795,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>180</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -806,17 +813,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -824,17 +831,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -842,17 +849,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>40</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -860,17 +867,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -878,17 +885,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -896,17 +903,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
@@ -914,17 +921,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
@@ -932,17 +939,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>70</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -950,17 +957,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>30</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -968,17 +975,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>80</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -986,17 +993,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>25</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1004,17 +1011,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>150</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -1022,28 +1029,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="3" t="s">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <f>SUM(D2:D24)</f>
         <v>3315</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <f>D27-D26</f>
         <v>185</v>
       </c>
